--- a/biology/Mycologie/Patuline/Patuline.xlsx
+++ b/biology/Mycologie/Patuline/Patuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La patuline est une mycotoxine synthétisée dans certaines conditions métaboliques par diverses espèces de champignons microscopiques, principalement par des moisissures, d’Aspergillus sp., et de Penicillium sp. se développant notamment sur des céréales, des légumineuses ou des fruits.
@@ -515,7 +527,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mycotoxine fongique a porté de nombreux noms (expansine, clavacine, claviformine, clavatine, mycoin C3, pénicidine), car elle a été isolée (dans les années 1940) par différents laboratoires et chercheurs qui ne pouvaient alors savoir qu'il s'agissait de la même molécule. Elle était trouvée parmi les substances surnageantes des cultures de différentes espèces d'Aspergillus et de Penicillium.
 </t>
@@ -546,14 +560,16 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être produite par divers champignons (moisissures) dont au moins :
 Des Penicillium : Penicillium patulum (syn. Penicillium griseofulvum, Penicillium urticae), Penicillium expansum (responsable de la (« pourriture bleue des pommes ») produisant un contaminant commun des Maloideae (pommes, poires, coings) et source de pertes financières et de risque sanitaire importants, en tant que premier contaminant des jus de fruits, compotes, cidres et autres sous-produits de la pomme. Il contamine aussi diverses cultures maraîchères et arboricoles), Penicillium glandicola (Syn. Penicillium granulatum), Penicillium vulpinum (Syn. Penicillium claviforme), Penicillium paneum, Penicillium carneum...) ;
 Des Aspergillus (Aspergillus clavatus, Aspergillus giganteus, Aspergillus terreus souches IMI 017294, IMI 016043...) ;
 Des Byssochlamys (Byssochlamys nivea - qui contamine fréquemment les ensilages -, Byssochlamys fulva...).
 Il a été signalé comme produit par des parasites lenticellaires ou des moisissures se développant à l'intérieur du fruit sans symptômes externes visibles. Des maladies du cœur du fruit ou altération des pépins pourraient aussi en être des sources directes ou indirectes.
-Deux espèces de Penicillium (P. paneum, P. carneum) phylogénétiquement proches parents du Penicillium roqueforti qui produit le fromage Roquefort produisent de la patuline en condition normale, mais non dans les conditions où le roquefort est fabriqué, probablement parce que le support est alors trop pauvre en glucides et trop riche en protéines et probablement pour d'autres raisons encore mal comprises[3].
+Deux espèces de Penicillium (P. paneum, P. carneum) phylogénétiquement proches parents du Penicillium roqueforti qui produit le fromage Roquefort produisent de la patuline en condition normale, mais non dans les conditions où le roquefort est fabriqué, probablement parce que le support est alors trop pauvre en glucides et trop riche en protéines et probablement pour d'autres raisons encore mal comprises.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Rémanence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La patuline, comme d'autres mycotoxines, peut subsister des années dans les denrées et leurs sous-produits, même après l'élimination des moisissures par un fongicide ou par traitement mécanique.
 </t>
@@ -613,7 +631,9 @@
           <t>Impacts économiques, produits touchés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La patuline produite par des Aspergillus ou d'autres moisissures (Penicillium..), est trouvée sur le blé, maïs, luzerne, soja, avoine, riz, et donc dans les ensilages destinés aux animaux, mais aussi sur des fruits tels que des abricots, bananes, pêches, raisins (et jus de raisin et vin), mais surtout sur les pommes et leurs sous-produits.
 </t>
@@ -644,7 +664,9 @@
           <t>Risques pour l'homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir d'une certaine dose (faible), ils se manifestent par des lésions congestives au niveau des poumons, des reins et de la rate ; mais accessoirement, la patuline provoque une dégénérescence des neurones du cortex cérébral, d'où peuvent résulter divers symptômes nerveux (dont paralysie…).
 </t>
@@ -675,11 +697,11 @@
           <t>Risques pour l'animal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La patuline induit une hyperkératose chez certaines espèces d'élevage (bovidés et porcins).
-Risques pour l'écosystème
-Le rejet de produits contaminés dans l'environnement, ou l'entretien de conditions favorisant la production de patuline (dystrophisation) pourrait affecter certaines espèces ou groupes d'espèces.
 </t>
         </is>
       </c>
@@ -705,12 +727,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Normes</t>
+          <t>Risques pour l'animal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un maximum de 25 µg/kg est toléré dans le jus de pomme et les produits à base de pommes en Europe, mais ces teneurs limites admissibles sont en cours de discussion[Quand ?] au sein de la Commission européenne : 25  ou   50 µg/kg est proposé comme une norme obligatoire dans la plupart des pays.
+          <t>Risques pour l'écosystème</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rejet de produits contaminés dans l'environnement, ou l'entretien de conditions favorisant la production de patuline (dystrophisation) pourrait affecter certaines espèces ou groupes d'espèces.
 </t>
         </is>
       </c>
@@ -736,13 +764,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Prévention et décontamination</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limiter les moisissures en amont est la meilleure prévention, de même que l'élimination stricte de produits moisis ou dégradés des filières de production de jus de fruit.
-On a noté que des souches de B. fulva naturellement démunies de deux gènes critiques pour la biosynthèse de la toxine ne pouvaient pas la produire[4],[5].
+          <t>Normes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un maximum de 25 µg/kg est toléré dans le jus de pomme et les produits à base de pommes en Europe, mais ces teneurs limites admissibles sont en cours de discussion[Quand ?] au sein de la Commission européenne : 25  ou   50 µg/kg est proposé comme une norme obligatoire dans la plupart des pays.
 </t>
         </is>
       </c>
@@ -768,12 +797,48 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Prévention et décontamination</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limiter les moisissures en amont est la meilleure prévention, de même que l'élimination stricte de produits moisis ou dégradés des filières de production de jus de fruit.
+On a noté que des souches de B. fulva naturellement démunies de deux gènes critiques pour la biosynthèse de la toxine ne pouvaient pas la produire,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patuline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patuline</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Méthodes analytiques</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La détermination de la concentration de la patuline dans les matrices alimentaires est effectuée par chromatographie en phase liquide à haute performance (HPLC). Afin d'obtenir un résultat d'analyse fiable, il est nécessaire d'utiliser un prétraitement d'échantillons qui permet l'extraction et la purification de la patuline de ces matrices complexes. Ce prétraitement d'échantillons est notamment effectué par extraction en phase solide[6] (SPE) utilisant la technologie des polymères à empreinte moléculaire[7]. Plusieurs protocoles de purification ont été développés pour ces matrices [8] (aliments à base de pommes notamment pour les bébés…).
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La détermination de la concentration de la patuline dans les matrices alimentaires est effectuée par chromatographie en phase liquide à haute performance (HPLC). Afin d'obtenir un résultat d'analyse fiable, il est nécessaire d'utiliser un prétraitement d'échantillons qui permet l'extraction et la purification de la patuline de ces matrices complexes. Ce prétraitement d'échantillons est notamment effectué par extraction en phase solide (SPE) utilisant la technologie des polymères à empreinte moléculaire. Plusieurs protocoles de purification ont été développés pour ces matrices  (aliments à base de pommes notamment pour les bébés…).
 </t>
         </is>
       </c>
